--- a/Flux.xlsx
+++ b/Flux.xlsx
@@ -3881,244 +3881,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="352"/>
                 <c:pt idx="0">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-26.45498751221393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-25.72565447286723</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-26.45498751221393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-31.50822357054462</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-26.45498751221393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-26.45498751221393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-26.45498751221393</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-24.99632143352053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-24.99632143352053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-23.56370296337523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-22.10503688468184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-22.10503688468184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-22.83436992402854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-23.56370296337523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-23.56370296337523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-24.29303600272193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-23.56370296337523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-22.83436992402854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22.10503688468184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-21.40175145388324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-19.94308537518984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-18.48441929649645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-18.48441929649645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-17.78113386569785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-14.16051627751246</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-11.26923172867376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.377947179835068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.377947179835068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-11.26923172867376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-11.97251715947236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-11.97251715947236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-12.70185019881906</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-11.97251715947236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-11.26923172867376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-11.26923172867376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-12.70185019881906</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-11.97251715947236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-10.53989868932706</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-9.081232610633673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-5.46061502244828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-4.02799655230298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-4.02799655230298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-4.757329591649675</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-5.46061502244828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-6.189948061794976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-7.648614140488373</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.377947179835068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-9.081232610633673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-9.810565649980369</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-9.081232610633673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-6.919281101141674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.02799655230298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.754572545374401</c:v>
@@ -4127,22 +4127,22 @@
                   <c:v>0.3219540752291046</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.4073789641175836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.136712003464286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.569330473609586</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.569330473609586</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-4.757329591649675</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.569330473609586</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.051287114575807</c:v>
@@ -4166,7 +4166,7 @@
                   <c:v>0.3219540752291046</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.136712003464286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.3219540752291046</c:v>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -17700,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0.8581008000000001</v>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-26.45498751221393</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0.2655744</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>-25.72565447286723</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>-0.2655744</v>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>-26.45498751221393</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>-0.8581008000000001</v>
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -19270,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>-31.50822357054462</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0.8581008000000001</v>
@@ -19326,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>-26.45498751221393</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>-26.45498751221393</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>-26.45498751221393</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0.5668992</v>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>-24.99632143352053</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>-24.99632143352053</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0.6959700000000003</v>
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>-23.56370296337523</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0.8503488000000001</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>-22.10503688468184</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>-22.10503688468184</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>-0.443049600000001</v>
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>-22.83436992402854</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>-0.4072991999999992</v>
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>-23.56370296337523</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>-23.56370296337523</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>-0.3715488000000001</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>-24.29303600272193</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0.3715488000000001</v>
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>-23.56370296337523</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0.4072991999999992</v>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>-22.83436992402854</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0.443049600000001</v>
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>-22.10503688468184</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0.4610843999999997</v>
@@ -20166,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>-21.40175145388324</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>1.0622976</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>-19.94308537518984</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1.2052992</v>
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>-18.48441929649645</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>-18.48441929649645</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0.6322211999999996</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-17.78113386569785</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>3.780855599999998</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>-14.16051627751246</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>3.651944400000004</v>
@@ -20472,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>-11.26923172867376</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>4.213781999999999</v>
@@ -20522,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>-8.377947179835068</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>-8.377947179835068</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>-1.0534455</v>
@@ -20622,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>-11.26923172867376</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>-0.9400211999999996</v>
@@ -20672,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>-11.97251715947236</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -20722,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>-11.97251715947236</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>-0.9397248000000002</v>
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>-12.70185019881906</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0.9397248000000002</v>
@@ -20822,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>-11.97251715947236</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0.9400211999999996</v>
@@ -20872,7 +20872,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>-11.26923172867376</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>-11.26923172867376</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>-1.879745999999999</v>
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>-12.70185019881906</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0.4698624000000001</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>-11.97251715947236</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>1.94997</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>-10.53989868932706</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>2.127148799999996</v>
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>-9.081232610633673</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>5.897881200000005</v>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>-5.46061502244828</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>2.576969999999999</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>-4.02799655230298</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>-4.02799655230298</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>-1.329148799999994</v>
@@ -21322,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>-4.757329591649675</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>-1.247821200000005</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>-5.46061502244828</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>-1.2589248</v>
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>-6.189948061794976</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>-2.4105984</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>-7.648614140488373</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>-1.1516736</v>
@@ -21522,7 +21522,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>-8.377947179835068</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>-1.076684400000004</v>
@@ -21572,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>-9.081232610633673</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>-1.081449599999995</v>
@@ -21616,7 +21616,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>-9.810565649980369</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1.081449599999995</v>
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>-9.081232610633673</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>3.415782000000004</v>
@@ -21704,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>-6.919281101141674</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>5.0590692</v>
@@ -21748,7 +21748,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>-4.02799655230298</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>11.8036512</v>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>-0.4073789641175836</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>-1.506624000000007</v>
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>-1.136712003464286</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>-2.855358000000006</v>
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>-2.569330473609586</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>-2.569330473609586</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>-4.094697599999994</v>
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>-4.757329591649675</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>4.094697599999994</v>
@@ -22100,7 +22100,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>-2.569330473609586</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>7.4824812</v>
@@ -22452,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>-1.136712003464286</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>3.048998399999987</v>

--- a/Flux.xlsx
+++ b/Flux.xlsx
@@ -133,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Operating range flux</a:t>
+              <a:t>Operating range Flux</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -932,7 +932,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>0 Watt acceleration flux</a:t>
+              <a:t>0 Watt acceleration Flux</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1276,10 +1276,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$18</c:f>
+              <c:f>Sheet1!$H$3:$H$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1324,6 +1324,267 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,54 +1923,315 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$18</c:f>
+              <c:f>Sheet1!$R$3:$R$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.620045622471642</c:v>
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-165.3558232990338</c:v>
+                  <c:v>-18.75014357878633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>441.47988665398</c:v>
+                  <c:v>946.0201883692379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-73.77825117366763</c:v>
+                  <c:v>653.4470216940588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-190.2381414362937</c:v>
+                  <c:v>602.8074966266541</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.063367848707344</c:v>
+                  <c:v>693.5007497795915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.95792374347104</c:v>
+                  <c:v>586.9309174942641</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.4702171452044</c:v>
+                  <c:v>435.6802139678188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.04952641303532</c:v>
+                  <c:v>286.0037949879199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.04895340966954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-255.9409205929615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-232.0173532875366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-283.1899390282416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-243.844574710499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-222.2972254513456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-246.8646338689044</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-196.1509465636465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-251.724014295604</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-192.6450330839105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-223.4982044201535</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-154.5659160857899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-196.4492548781397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-170.6174537030944</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-158.6972765796082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-148.6336689920203</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-136.8089942258382</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-127.7382407037794</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-108.8153069551919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-99.83948901204555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-91.79388759469566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-83.77307529524461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-64.2745367237235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-58.08276772702995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-53.71001371005359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-48.42844868680738</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-35.28864395205307</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-30.92403545796984</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-24.84523501567444</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-21.37387235864044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.28998628994641</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-64.2745367237235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-58.97091493830974</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-51.93771727642873</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-48.42844868680738</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-38.77955391927149</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-30.92403545796984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-27.4441318590985</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-23.96911508777327</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-18.75014357878633</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-17.03374202776112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-12.70127490563258</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-11.82947502688588</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.506214781457903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.928353785169839</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.086351120634575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.086351120634575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,10 +2576,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$18</c:f>
+              <c:f>Sheet1!$L$3:$L$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2102,6 +2624,267 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.89720000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.2972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.69880000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.2988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.4988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.1976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.9972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.3988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.9984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.0968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.8984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.4992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.4984</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.5984</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.698399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.6988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1976</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.4988</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6988</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2976</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.898</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4976</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,10 +3224,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$18</c:f>
+              <c:f>Sheet1!$Q$3:$Q$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2489,6 +3272,267 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.89720000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.2972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.69880000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.2988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.4988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.1976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.9972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.3988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.9984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.0968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.8984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.4992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.4984</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.5984</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.698399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.6988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1976</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9988</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.4988</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6988</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2976</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.898</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4976</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3077,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3106,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3121,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3150,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3165,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3194,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3209,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3238,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3253,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3282,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3297,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3326,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.832164240897911</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3341,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>-1.620045622471642</v>
+        <v>1.086351120634575</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3370,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>169.56794191746</v>
+        <v>15.92563066513643</v>
       </c>
       <c r="L10">
         <v>2.2968</v>
@@ -3385,7 +4429,7 @@
         <v>2.2968</v>
       </c>
       <c r="R10">
-        <v>-165.3558232990338</v>
+        <v>-18.75014357878633</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3414,7 +4458,7 @@
         <v>1028</v>
       </c>
       <c r="I11">
-        <v>590.7322319644463</v>
+        <v>79.1552987171122</v>
       </c>
       <c r="L11">
         <v>9.4968</v>
@@ -3429,7 +4473,7 @@
         <v>9.4968</v>
       </c>
       <c r="R11">
-        <v>441.47988665398</v>
+        <v>946.0201883692379</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3458,7 +4502,7 @@
         <v>803</v>
       </c>
       <c r="I12">
-        <v>880.9903697920939</v>
+        <v>146.7284653922914</v>
       </c>
       <c r="L12">
         <v>16.9992</v>
@@ -3473,7 +4517,7 @@
         <v>16.9992</v>
       </c>
       <c r="R12">
-        <v>-73.77825117366763</v>
+        <v>653.4470216940588</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3502,7 +4546,7 @@
         <v>803</v>
       </c>
       <c r="I13">
-        <v>997.45026005472</v>
+        <v>197.367990459696</v>
       </c>
       <c r="L13">
         <v>22.5</v>
@@ -3517,7 +4561,7 @@
         <v>22.5</v>
       </c>
       <c r="R13">
-        <v>-190.2381414362937</v>
+        <v>602.8074966266541</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3546,7 +4590,7 @@
         <v>991</v>
       </c>
       <c r="I14">
-        <v>996.2754864671336</v>
+        <v>294.6747373067586</v>
       </c>
       <c r="L14">
         <v>32.7996</v>
@@ -3561,7 +4605,7 @@
         <v>32.7996</v>
       </c>
       <c r="R14">
-        <v>-1.063367848707344</v>
+        <v>693.5007497795915</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3590,7 +4634,7 @@
         <v>926</v>
       </c>
       <c r="I15">
-        <v>911.2541948749553</v>
+        <v>336.244569592086</v>
       </c>
       <c r="L15">
         <v>37.098</v>
@@ -3605,7 +4649,7 @@
         <v>37.098</v>
       </c>
       <c r="R15">
-        <v>18.95792374347104</v>
+        <v>586.9309174942641</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3634,7 +4678,7 @@
         <v>810</v>
       </c>
       <c r="I16">
-        <v>801.7419014732219</v>
+        <v>371.4952731185313</v>
       </c>
       <c r="L16">
         <v>40.698</v>
@@ -3649,7 +4693,7 @@
         <v>40.698</v>
       </c>
       <c r="R16">
-        <v>12.4702171452044</v>
+        <v>435.6802139678188</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3678,7 +4722,7 @@
         <v>694</v>
       </c>
       <c r="I17">
-        <v>666.162592205391</v>
+        <v>405.1716920984301</v>
       </c>
       <c r="L17">
         <v>44.1</v>
@@ -3693,7 +4737,7 @@
         <v>44.1</v>
       </c>
       <c r="R17">
-        <v>32.04952641303532</v>
+        <v>286.0037949879199</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3718,8 +4762,26 @@
       <c r="G18">
         <v>4.25</v>
       </c>
+      <c r="H18">
+        <v>453</v>
+      </c>
+      <c r="I18">
+        <v>433.1265336766805</v>
+      </c>
+      <c r="L18">
+        <v>46.89720000000001</v>
+      </c>
       <c r="O18">
         <v>4.25</v>
+      </c>
+      <c r="P18">
+        <v>453</v>
+      </c>
+      <c r="Q18">
+        <v>46.89720000000001</v>
+      </c>
+      <c r="R18">
+        <v>17.04895340966954</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3744,8 +4806,26 @@
       <c r="G19">
         <v>4.5</v>
       </c>
+      <c r="H19">
+        <v>163</v>
+      </c>
+      <c r="I19">
+        <v>416.1164076793116</v>
+      </c>
+      <c r="L19">
+        <v>45.198</v>
+      </c>
       <c r="O19">
         <v>4.5</v>
+      </c>
+      <c r="P19">
+        <v>163</v>
+      </c>
+      <c r="Q19">
+        <v>45.198</v>
+      </c>
+      <c r="R19">
+        <v>-255.9409205929615</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3770,8 +4850,26 @@
       <c r="G20">
         <v>4.75</v>
       </c>
+      <c r="H20">
+        <v>168</v>
+      </c>
+      <c r="I20">
+        <v>397.1928403738867</v>
+      </c>
+      <c r="L20">
+        <v>43.2972</v>
+      </c>
       <c r="O20">
         <v>4.75</v>
+      </c>
+      <c r="P20">
+        <v>168</v>
+      </c>
+      <c r="Q20">
+        <v>43.2972</v>
+      </c>
+      <c r="R20">
+        <v>-232.0173532875366</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3796,8 +4894,26 @@
       <c r="G21">
         <v>5.016</v>
       </c>
+      <c r="H21">
+        <v>101</v>
+      </c>
+      <c r="I21">
+        <v>381.3654261145917</v>
+      </c>
+      <c r="L21">
+        <v>41.69880000000001</v>
+      </c>
       <c r="O21">
         <v>5.016</v>
+      </c>
+      <c r="P21">
+        <v>101</v>
+      </c>
+      <c r="Q21">
+        <v>41.69880000000001</v>
+      </c>
+      <c r="R21">
+        <v>-283.1899390282416</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3822,8 +4938,26 @@
       <c r="G22">
         <v>5.25</v>
       </c>
+      <c r="H22">
+        <v>104</v>
+      </c>
+      <c r="I22">
+        <v>345.0200617968491</v>
+      </c>
+      <c r="L22">
+        <v>37.998</v>
+      </c>
       <c r="O22">
         <v>5.25</v>
+      </c>
+      <c r="P22">
+        <v>104</v>
+      </c>
+      <c r="Q22">
+        <v>37.998</v>
+      </c>
+      <c r="R22">
+        <v>-243.844574710499</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3848,8 +4982,26 @@
       <c r="G23">
         <v>5.5</v>
       </c>
+      <c r="H23">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>328.4727125376957</v>
+      </c>
+      <c r="L23">
+        <v>36.2988</v>
+      </c>
       <c r="O23">
         <v>5.5</v>
+      </c>
+      <c r="P23">
+        <v>109</v>
+      </c>
+      <c r="Q23">
+        <v>36.2988</v>
+      </c>
+      <c r="R23">
+        <v>-222.2972254513456</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3874,8 +5026,26 @@
       <c r="G24">
         <v>5.766</v>
       </c>
+      <c r="H24">
+        <v>67</v>
+      </c>
+      <c r="I24">
+        <v>311.0401209552545</v>
+      </c>
+      <c r="L24">
+        <v>34.4988</v>
+      </c>
       <c r="O24">
         <v>5.766</v>
+      </c>
+      <c r="P24">
+        <v>67</v>
+      </c>
+      <c r="Q24">
+        <v>34.4988</v>
+      </c>
+      <c r="R24">
+        <v>-246.8646338689044</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3900,640 +5070,2080 @@
       <c r="G25">
         <v>6.016</v>
       </c>
+      <c r="H25">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>279.3264336499966</v>
+      </c>
+      <c r="L25">
+        <v>31.1976</v>
+      </c>
       <c r="O25">
         <v>6.016</v>
+      </c>
+      <c r="P25">
+        <v>86</v>
+      </c>
+      <c r="Q25">
+        <v>31.1976</v>
+      </c>
+      <c r="R25">
+        <v>-196.1509465636465</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="G26">
         <v>6.25</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>248.8995013819541</v>
+      </c>
+      <c r="L26">
+        <v>27.9972</v>
+      </c>
       <c r="O26">
         <v>6.25</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>27.9972</v>
+      </c>
+      <c r="R26">
+        <v>-251.724014295604</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="G27">
         <v>6.516</v>
       </c>
+      <c r="H27">
+        <v>44</v>
+      </c>
+      <c r="I27">
+        <v>233.8205201702606</v>
+      </c>
+      <c r="L27">
+        <v>26.3988</v>
+      </c>
       <c r="O27">
         <v>6.516</v>
+      </c>
+      <c r="P27">
+        <v>44</v>
+      </c>
+      <c r="Q27">
+        <v>26.3988</v>
+      </c>
+      <c r="R27">
+        <v>-192.6450330839105</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="G28">
         <v>6.75</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>220.6736915065036</v>
+      </c>
+      <c r="L28">
+        <v>24.9984</v>
+      </c>
       <c r="O28">
         <v>6.75</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>24.9984</v>
+      </c>
+      <c r="R28">
+        <v>-223.4982044201535</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="G29">
         <v>7</v>
       </c>
+      <c r="H29">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>205.74140317214</v>
+      </c>
+      <c r="L29">
+        <v>23.4</v>
+      </c>
       <c r="O29">
         <v>7</v>
+      </c>
+      <c r="P29">
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>23.4</v>
+      </c>
+      <c r="R29">
+        <v>-154.5659160857899</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="G30">
         <v>7.25</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>193.6247419644898</v>
+      </c>
+      <c r="L30">
+        <v>22.0968</v>
+      </c>
       <c r="O30">
         <v>7.25</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>22.0968</v>
+      </c>
+      <c r="R30">
+        <v>-196.4492548781397</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="G31">
         <v>7.516</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>167.7929407894446</v>
+      </c>
+      <c r="L31">
+        <v>19.2996</v>
+      </c>
       <c r="O31">
         <v>7.516</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>19.2996</v>
+      </c>
+      <c r="R31">
+        <v>-170.6174537030944</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="G32">
         <v>7.766</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>155.8727636659584</v>
+      </c>
+      <c r="L32">
+        <v>18</v>
+      </c>
       <c r="O32">
         <v>7.766</v>
       </c>
-    </row>
-    <row r="33" spans="7:15">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+      <c r="R32">
+        <v>-158.6972765796082</v>
+      </c>
+    </row>
+    <row r="33" spans="7:18">
       <c r="G33">
         <v>8.016</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>145.8091560783704</v>
+      </c>
+      <c r="L33">
+        <v>16.8984</v>
+      </c>
       <c r="O33">
         <v>8.016</v>
       </c>
-    </row>
-    <row r="34" spans="7:15">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>16.8984</v>
+      </c>
+      <c r="R33">
+        <v>-148.6336689920203</v>
+      </c>
+    </row>
+    <row r="34" spans="7:18">
       <c r="G34">
         <v>8.25</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>133.9844813121883</v>
+      </c>
+      <c r="L34">
+        <v>15.5988</v>
+      </c>
       <c r="O34">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="35" spans="7:15">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>15.5988</v>
+      </c>
+      <c r="R34">
+        <v>-136.8089942258382</v>
+      </c>
+    </row>
+    <row r="35" spans="7:18">
       <c r="G35">
         <v>9.016</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>124.9137277901295</v>
+      </c>
+      <c r="L35">
+        <v>14.598</v>
+      </c>
       <c r="O35">
         <v>9.016</v>
       </c>
-    </row>
-    <row r="36" spans="7:15">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>14.598</v>
+      </c>
+      <c r="R35">
+        <v>-127.7382407037794</v>
+      </c>
+    </row>
+    <row r="36" spans="7:18">
       <c r="G36">
         <v>9.266</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>105.990794041542</v>
+      </c>
+      <c r="L36">
+        <v>12.4992</v>
+      </c>
       <c r="O36">
         <v>9.266</v>
       </c>
-    </row>
-    <row r="37" spans="7:15">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>12.4992</v>
+      </c>
+      <c r="R36">
+        <v>-108.8153069551919</v>
+      </c>
+    </row>
+    <row r="37" spans="7:18">
       <c r="G37">
         <v>9.516</v>
       </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>97.01497609839565</v>
+      </c>
+      <c r="L37">
+        <v>11.4984</v>
+      </c>
       <c r="O37">
         <v>9.516</v>
       </c>
-    </row>
-    <row r="38" spans="7:15">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>11.4984</v>
+      </c>
+      <c r="R37">
+        <v>-99.83948901204555</v>
+      </c>
+    </row>
+    <row r="38" spans="7:18">
       <c r="G38">
         <v>9.766</v>
       </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>88.96937468104576</v>
+      </c>
+      <c r="L38">
+        <v>10.5984</v>
+      </c>
       <c r="O38">
         <v>9.766</v>
       </c>
-    </row>
-    <row r="39" spans="7:15">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>10.5984</v>
+      </c>
+      <c r="R38">
+        <v>-91.79388759469566</v>
+      </c>
+    </row>
+    <row r="39" spans="7:18">
       <c r="G39">
         <v>10.016</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>80.94856238159471</v>
+      </c>
+      <c r="L39">
+        <v>9.698399999999999</v>
+      </c>
       <c r="O39">
         <v>10.016</v>
       </c>
-    </row>
-    <row r="40" spans="7:15">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>9.698399999999999</v>
+      </c>
+      <c r="R39">
+        <v>-83.77307529524461</v>
+      </c>
+    </row>
+    <row r="40" spans="7:18">
       <c r="G40">
         <v>10.266</v>
       </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>61.4500238100736</v>
+      </c>
+      <c r="L40">
+        <v>7.4988</v>
+      </c>
       <c r="O40">
         <v>10.266</v>
       </c>
-    </row>
-    <row r="41" spans="7:15">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>7.4988</v>
+      </c>
+      <c r="R40">
+        <v>-64.2745367237235</v>
+      </c>
+    </row>
+    <row r="41" spans="7:18">
       <c r="G41">
         <v>10.516</v>
       </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>55.25825481338005</v>
+      </c>
+      <c r="L41">
+        <v>6.7968</v>
+      </c>
       <c r="O41">
         <v>10.516</v>
       </c>
-    </row>
-    <row r="42" spans="7:15">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>6.7968</v>
+      </c>
+      <c r="R41">
+        <v>-58.08276772702995</v>
+      </c>
+    </row>
+    <row r="42" spans="7:18">
       <c r="G42">
         <v>10.766</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>50.88550079640369</v>
+      </c>
+      <c r="L42">
+        <v>6.3</v>
+      </c>
       <c r="O42">
         <v>10.766</v>
       </c>
-    </row>
-    <row r="43" spans="7:15">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>6.3</v>
+      </c>
+      <c r="R42">
+        <v>-53.71001371005359</v>
+      </c>
+    </row>
+    <row r="43" spans="7:18">
       <c r="G43">
         <v>11.016</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>45.60393577315748</v>
+      </c>
+      <c r="L43">
+        <v>5.6988</v>
+      </c>
       <c r="O43">
         <v>11.016</v>
       </c>
-    </row>
-    <row r="44" spans="7:15">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>5.6988</v>
+      </c>
+      <c r="R43">
+        <v>-48.42844868680738</v>
+      </c>
+    </row>
+    <row r="44" spans="7:18">
       <c r="G44">
         <v>11.266</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>32.46413103840317</v>
+      </c>
+      <c r="L44">
+        <v>4.1976</v>
+      </c>
       <c r="O44">
         <v>11.266</v>
       </c>
-    </row>
-    <row r="45" spans="7:15">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>4.1976</v>
+      </c>
+      <c r="R44">
+        <v>-35.28864395205307</v>
+      </c>
+    </row>
+    <row r="45" spans="7:18">
       <c r="G45">
         <v>11.516</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>28.09952254431995</v>
+      </c>
+      <c r="L45">
+        <v>3.6972</v>
+      </c>
       <c r="O45">
         <v>11.516</v>
       </c>
-    </row>
-    <row r="46" spans="7:15">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>3.6972</v>
+      </c>
+      <c r="R45">
+        <v>-30.92403545796984</v>
+      </c>
+    </row>
+    <row r="46" spans="7:18">
       <c r="G46">
         <v>11.766</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>22.02072210202454</v>
+      </c>
+      <c r="L46">
+        <v>2.9988</v>
+      </c>
       <c r="O46">
         <v>11.766</v>
       </c>
-    </row>
-    <row r="47" spans="7:15">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2.9988</v>
+      </c>
+      <c r="R46">
+        <v>-24.84523501567444</v>
+      </c>
+    </row>
+    <row r="47" spans="7:18">
       <c r="G47">
         <v>12.016</v>
       </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>18.54935944499054</v>
+      </c>
+      <c r="L47">
+        <v>2.5992</v>
+      </c>
       <c r="O47">
         <v>12.016</v>
       </c>
-    </row>
-    <row r="48" spans="7:15">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2.5992</v>
+      </c>
+      <c r="R47">
+        <v>-21.37387235864044</v>
+      </c>
+    </row>
+    <row r="48" spans="7:18">
       <c r="G48">
         <v>12.266</v>
       </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <v>50.88550079640369</v>
+      </c>
+      <c r="L48">
+        <v>6.3</v>
+      </c>
       <c r="O48">
         <v>12.266</v>
       </c>
-    </row>
-    <row r="49" spans="7:15">
+      <c r="P48">
+        <v>90</v>
+      </c>
+      <c r="Q48">
+        <v>6.3</v>
+      </c>
+      <c r="R48">
+        <v>36.28998628994641</v>
+      </c>
+    </row>
+    <row r="49" spans="7:18">
       <c r="G49">
         <v>12.516</v>
       </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>61.4500238100736</v>
+      </c>
+      <c r="L49">
+        <v>7.4988</v>
+      </c>
       <c r="O49">
         <v>12.516</v>
       </c>
-    </row>
-    <row r="50" spans="7:15">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>7.4988</v>
+      </c>
+      <c r="R49">
+        <v>-64.2745367237235</v>
+      </c>
+    </row>
+    <row r="50" spans="7:18">
       <c r="G50">
         <v>12.766</v>
       </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>56.14640202465984</v>
+      </c>
+      <c r="L50">
+        <v>6.897600000000001</v>
+      </c>
       <c r="O50">
         <v>12.766</v>
       </c>
-    </row>
-    <row r="51" spans="7:15">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>6.897600000000001</v>
+      </c>
+      <c r="R50">
+        <v>-58.97091493830974</v>
+      </c>
+    </row>
+    <row r="51" spans="7:18">
       <c r="G51">
         <v>13.016</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>49.11320436277883</v>
+      </c>
+      <c r="L51">
+        <v>6.098400000000001</v>
+      </c>
       <c r="O51">
         <v>13.016</v>
       </c>
-    </row>
-    <row r="52" spans="7:15">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>6.098400000000001</v>
+      </c>
+      <c r="R51">
+        <v>-51.93771727642873</v>
+      </c>
+    </row>
+    <row r="52" spans="7:18">
       <c r="G52">
         <v>13.266</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>45.60393577315748</v>
+      </c>
+      <c r="L52">
+        <v>5.6988</v>
+      </c>
       <c r="O52">
         <v>13.266</v>
       </c>
-    </row>
-    <row r="53" spans="7:15">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>5.6988</v>
+      </c>
+      <c r="R52">
+        <v>-48.42844868680738</v>
+      </c>
+    </row>
+    <row r="53" spans="7:18">
       <c r="G53">
         <v>13.516</v>
       </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>35.95504100562159</v>
+      </c>
+      <c r="L53">
+        <v>4.5972</v>
+      </c>
       <c r="O53">
         <v>13.516</v>
       </c>
-    </row>
-    <row r="54" spans="7:15">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>4.5972</v>
+      </c>
+      <c r="R53">
+        <v>-38.77955391927149</v>
+      </c>
+    </row>
+    <row r="54" spans="7:18">
       <c r="G54">
         <v>13.766</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>28.09952254431995</v>
+      </c>
+      <c r="L54">
+        <v>3.6972</v>
+      </c>
       <c r="O54">
         <v>13.766</v>
       </c>
-    </row>
-    <row r="55" spans="7:15">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>3.6972</v>
+      </c>
+      <c r="R54">
+        <v>-30.92403545796984</v>
+      </c>
+    </row>
+    <row r="55" spans="7:18">
       <c r="G55">
         <v>14.016</v>
       </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>24.61961894544861</v>
+      </c>
+      <c r="L55">
+        <v>3.2976</v>
+      </c>
       <c r="O55">
         <v>14.016</v>
       </c>
-    </row>
-    <row r="56" spans="7:15">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>3.2976</v>
+      </c>
+      <c r="R55">
+        <v>-27.4441318590985</v>
+      </c>
+    </row>
+    <row r="56" spans="7:18">
       <c r="G56">
         <v>14.266</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>21.14460217412338</v>
+      </c>
+      <c r="L56">
+        <v>2.898</v>
+      </c>
       <c r="O56">
         <v>14.266</v>
       </c>
-    </row>
-    <row r="57" spans="7:15">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2.898</v>
+      </c>
+      <c r="R56">
+        <v>-23.96911508777327</v>
+      </c>
+    </row>
+    <row r="57" spans="7:18">
       <c r="G57">
         <v>14.516</v>
       </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>15.92563066513643</v>
+      </c>
+      <c r="L57">
+        <v>2.2968</v>
+      </c>
       <c r="O57">
         <v>14.516</v>
       </c>
-    </row>
-    <row r="58" spans="7:15">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>2.2968</v>
+      </c>
+      <c r="R57">
+        <v>-18.75014357878633</v>
+      </c>
+    </row>
+    <row r="58" spans="7:18">
       <c r="G58">
         <v>14.766</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>14.20922911411123</v>
+      </c>
+      <c r="L58">
+        <v>2.0988</v>
+      </c>
       <c r="O58">
         <v>14.766</v>
       </c>
-    </row>
-    <row r="59" spans="7:15">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2.0988</v>
+      </c>
+      <c r="R58">
+        <v>-17.03374202776112</v>
+      </c>
+    </row>
+    <row r="59" spans="7:18">
       <c r="G59">
         <v>15.016</v>
       </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>9.876761991982681</v>
+      </c>
+      <c r="L59">
+        <v>1.5984</v>
+      </c>
       <c r="O59">
         <v>15.016</v>
       </c>
-    </row>
-    <row r="60" spans="7:15">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1.5984</v>
+      </c>
+      <c r="R59">
+        <v>-12.70127490563258</v>
+      </c>
+    </row>
+    <row r="60" spans="7:18">
       <c r="G60">
         <v>15.266</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>9.004962113235981</v>
+      </c>
+      <c r="L60">
+        <v>1.4976</v>
+      </c>
       <c r="O60">
         <v>15.266</v>
       </c>
-    </row>
-    <row r="61" spans="7:15">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1.4976</v>
+      </c>
+      <c r="R60">
+        <v>-11.82947502688588</v>
+      </c>
+    </row>
+    <row r="61" spans="7:18">
       <c r="G61">
         <v>15.516</v>
       </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>4.681701867808007</v>
+      </c>
+      <c r="L61">
+        <v>0.9972000000000001</v>
+      </c>
       <c r="O61">
         <v>15.516</v>
       </c>
-    </row>
-    <row r="62" spans="7:15">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0.9972000000000001</v>
+      </c>
+      <c r="R61">
+        <v>-7.506214781457903</v>
+      </c>
+    </row>
+    <row r="62" spans="7:18">
       <c r="G62">
         <v>15.766</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2.103840871519943</v>
+      </c>
+      <c r="L62">
+        <v>0.6984</v>
+      </c>
       <c r="O62">
         <v>15.766</v>
       </c>
-    </row>
-    <row r="63" spans="7:15">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0.6984</v>
+      </c>
+      <c r="R62">
+        <v>-4.928353785169839</v>
+      </c>
+    </row>
+    <row r="63" spans="7:18">
       <c r="G63">
         <v>16.016</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
       <c r="O63">
         <v>16.016</v>
       </c>
-    </row>
-    <row r="64" spans="7:15">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="64" spans="7:18">
       <c r="G64">
         <v>16.266</v>
       </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
       <c r="O64">
         <v>16.266</v>
       </c>
-    </row>
-    <row r="65" spans="7:15">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="65" spans="7:18">
       <c r="G65">
         <v>16.516</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
       <c r="O65">
         <v>16.516</v>
       </c>
-    </row>
-    <row r="66" spans="7:15">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="66" spans="7:18">
       <c r="G66">
         <v>16.766</v>
       </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
       <c r="O66">
         <v>16.766</v>
       </c>
-    </row>
-    <row r="67" spans="7:15">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="67" spans="7:18">
       <c r="G67">
         <v>17.016</v>
       </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
       <c r="O67">
         <v>17.016</v>
       </c>
-    </row>
-    <row r="68" spans="7:15">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="68" spans="7:18">
       <c r="G68">
         <v>17.266</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
       <c r="O68">
         <v>17.266</v>
       </c>
-    </row>
-    <row r="69" spans="7:15">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="69" spans="7:18">
       <c r="G69">
         <v>17.5</v>
       </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
       <c r="O69">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="70" spans="7:15">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="70" spans="7:18">
       <c r="G70">
         <v>17.75</v>
       </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
       <c r="O70">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="71" spans="7:15">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="71" spans="7:18">
       <c r="G71">
         <v>18</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
       <c r="O71">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="7:15">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="72" spans="7:18">
       <c r="G72">
         <v>18.25</v>
       </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
       <c r="O72">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="73" spans="7:15">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="73" spans="7:18">
       <c r="G73">
         <v>18.5</v>
       </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
       <c r="O73">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="74" spans="7:15">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="74" spans="7:18">
       <c r="G74">
         <v>18.75</v>
       </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="O74">
         <v>18.75</v>
       </c>
-    </row>
-    <row r="75" spans="7:15">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="75" spans="7:18">
       <c r="G75">
         <v>19</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
       <c r="O75">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="7:15">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="76" spans="7:18">
       <c r="G76">
         <v>19.25</v>
       </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
       <c r="O76">
         <v>19.25</v>
       </c>
-    </row>
-    <row r="77" spans="7:15">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="77" spans="7:18">
       <c r="G77">
         <v>19.5</v>
       </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
       <c r="O77">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="78" spans="7:15">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="78" spans="7:18">
       <c r="G78">
         <v>19.75</v>
       </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
       <c r="O78">
         <v>19.75</v>
       </c>
-    </row>
-    <row r="79" spans="7:15">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="79" spans="7:18">
       <c r="G79">
         <v>20</v>
       </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
       <c r="O79">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="7:15">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="80" spans="7:18">
       <c r="G80">
         <v>20.25</v>
       </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
       <c r="O80">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="81" spans="7:15">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="81" spans="7:18">
       <c r="G81">
         <v>20.5</v>
       </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
       <c r="O81">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="82" spans="7:15">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="82" spans="7:18">
       <c r="G82">
         <v>20.75</v>
       </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
       <c r="O82">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="83" spans="7:15">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="83" spans="7:18">
       <c r="G83">
         <v>21</v>
       </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
       <c r="O83">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="7:15">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="84" spans="7:18">
       <c r="G84">
         <v>21.25</v>
       </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
       <c r="O84">
         <v>21.25</v>
       </c>
-    </row>
-    <row r="85" spans="7:15">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="85" spans="7:18">
       <c r="G85">
         <v>21.5</v>
       </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
       <c r="O85">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="86" spans="7:15">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="86" spans="7:18">
       <c r="G86">
         <v>21.75</v>
       </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
       <c r="O86">
         <v>21.75</v>
       </c>
-    </row>
-    <row r="87" spans="7:15">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="87" spans="7:18">
       <c r="G87">
         <v>22</v>
       </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
       <c r="O87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="7:15">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="88" spans="7:18">
       <c r="G88">
         <v>22.5</v>
       </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
       <c r="O88">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="89" spans="7:15">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="89" spans="7:18">
       <c r="G89">
         <v>22.75</v>
       </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
       <c r="O89">
         <v>22.75</v>
       </c>
-    </row>
-    <row r="90" spans="7:15">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="90" spans="7:18">
       <c r="G90">
         <v>23</v>
       </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
       <c r="O90">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="7:15">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="91" spans="7:18">
       <c r="G91">
         <v>23.25</v>
       </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
       <c r="O91">
         <v>23.25</v>
       </c>
-    </row>
-    <row r="92" spans="7:15">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="92" spans="7:18">
       <c r="G92">
         <v>23.5</v>
       </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
       <c r="O92">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="93" spans="7:15">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="93" spans="7:18">
       <c r="G93">
         <v>24.25</v>
       </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
       <c r="O93">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="94" spans="7:15">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="94" spans="7:18">
       <c r="G94">
         <v>24.5</v>
       </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
       <c r="O94">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="95" spans="7:15">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="95" spans="7:18">
       <c r="G95">
         <v>24.75</v>
       </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
       <c r="O95">
         <v>24.75</v>
       </c>
-    </row>
-    <row r="96" spans="7:15">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="96" spans="7:18">
       <c r="G96">
         <v>25</v>
       </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
       <c r="O96">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="7:15">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="97" spans="7:18">
       <c r="G97">
         <v>25.25</v>
       </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
       <c r="O97">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="98" spans="7:15">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="98" spans="7:18">
       <c r="G98">
         <v>25.5</v>
       </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
       <c r="O98">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="99" spans="7:15">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="99" spans="7:18">
       <c r="G99">
         <v>25.75</v>
       </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
       <c r="O99">
         <v>25.75</v>
       </c>
-    </row>
-    <row r="100" spans="7:15">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="100" spans="7:18">
       <c r="G100">
         <v>26</v>
       </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
       <c r="O100">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="7:15">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="101" spans="7:18">
       <c r="G101">
         <v>26.25</v>
       </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
       <c r="O101">
         <v>26.25</v>
       </c>
-    </row>
-    <row r="102" spans="7:15">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="102" spans="7:18">
       <c r="G102">
         <v>26.5</v>
       </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
       <c r="O102">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="103" spans="7:15">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="103" spans="7:18">
       <c r="G103">
         <v>26.75</v>
       </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
       <c r="O103">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="104" spans="7:15">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>1.086351120634575</v>
+      </c>
+    </row>
+    <row r="104" spans="7:18">
       <c r="G104">
         <v>27</v>
       </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
       <c r="O104">
         <v>27</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1.086351120634575</v>
       </c>
     </row>
   </sheetData>

--- a/Flux.xlsx
+++ b/Flux.xlsx
@@ -15970,6 +15970,2735 @@
                 </c:pt>
                 <c:pt idx="448">
                   <c:v>297.8763231575074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Fitted Power Constant Velocities</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$3:$D$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="450"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8988</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7988</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7988</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5972</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.698</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.598</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6988</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3972</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.498</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.098400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5988</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.0992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.9984</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.2972</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.9984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.0992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.7968</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4988</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2972</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.6996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7976</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.599600000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.696800000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.398800000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.398800000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.398800000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.499600000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.499600000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.398800000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.8992</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.798399999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.798399999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.097200000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.3996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.799200000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.5984</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.997200000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.098</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.4976</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.098</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.1996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.6992</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.6992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10.8972</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10.4976</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.8972</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.8972</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10.8972</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.0988</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11.4984</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.7972</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.7972</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11.7972</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11.7972</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.2976</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.1968</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.0996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12.6972</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.1968</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12.2976</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12.8988</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.0968</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.0968</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.3992</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.2984</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.3992</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13.3992</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.1976</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.2984</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.0976</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.8996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.4972</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.0976</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13.698</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13.9968</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>13.7988</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13.9968</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>13.7988</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>13.7988</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>13.8996</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13.8996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.0976</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>14.2992</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14.0976</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>14.4972</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14.598</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14.1984</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14.598</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14.2992</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.598</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14.7996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.6988</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>15.0984</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.9976</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15.5988</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>15.3972</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>15.498</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15.7968</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15.5988</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16.8984</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.9992</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>16.8984</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>16.7976</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16.8984</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.8992</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>17.7984</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.8992</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>17.7984</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>17.8992</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17.8992</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>18.0972</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.0972</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.0972</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>18.2988</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18.6984</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>18.2988</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18.4968</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18.6984</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>18.3996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>18.3996</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>18.198</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>18.3996</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>19.1988</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>19.1988</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>19.098</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>19.3968</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>19.3968</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>19.5984</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>19.3968</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>19.2996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>19.1988</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>19.5984</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>19.4976</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>19.4976</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>19.8972</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>19.998</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>19.8972</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>20.0988</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>20.3976</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>20.0988</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>20.1996</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19.998</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>20.0988</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>20.0988</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>20.3976</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20.7972</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>20.9988</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>21.1968</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>21.3984</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>21.3984</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>21.6972</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>21.8988</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>21.9996</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>21.8988</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>21.6972</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>22.0968</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>22.5972</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>22.8996</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>22.9968</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>22.9968</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>23.1984</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>23.2992</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23.2992</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23.0976</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>22.7988</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>22.1976</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>22.1976</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>22.3992</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>22.3992</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>22.7988</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>23.4972</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>23.8968</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24.0984</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24.1992</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24.3972</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>24.498</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>24.498</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24.498</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>24.6996</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>24.6996</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>24.6996</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>24.498</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>24.5988</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24.9984</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>25.6968</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>25.7976</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>25.7976</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>25.7976</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>25.7976</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>25.8984</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>25.8984</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>26.4996</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>26.4996</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>26.5968</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>26.3988</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>25.9992</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>26.5968</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>26.4996</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>26.5968</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>26.6976</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26.6976</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>27.0972</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>27.198</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>27.198</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>27.198</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>26.8992</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>27.0972</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>27.198</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>27.2988</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>27.2988</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>27.7992</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>28.098</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>28.1988</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>28.4976</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>28.5984</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>28.4976</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>28.1988</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>27.6984</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>27.9972</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>28.098</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>28.1988</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>28.1988</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>28.2996</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>28.4976</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29.0988</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>29.1996</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>29.3976</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>29.3976</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>29.2968</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>29.2968</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>29.2968</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>29.4984</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>30.2976</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>30.3984</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>30.3984</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>30.4992</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>30.6972</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>30.8988</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>31.1976</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>31.0968</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>31.3992</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>31.5972</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>31.5972</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>31.7988</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>31.8996</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>32.0976</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>31.9968</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>32.0976</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>32.0976</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>32.0976</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>32.2992</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>32.1984</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>32.2992</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>32.6988</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>32.6988</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>33.39720000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>33.6996</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>33.7968</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>33.6996</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>33.6996</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>33.6996</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>33.7968</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>33.7968</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>34.6968</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>35.1972</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>35.298</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>35.3988</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>35.1972</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>34.8984</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>34.8984</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>34.8984</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>34.8984</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>34.6968</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>33.6996</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>33.9984</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>34.398</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>34.6968</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>35.298</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>35.3988</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>35.298</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>35.298</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>35.1972</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>35.1972</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>35.6976</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>35.89920000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>37.098</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>37.4976</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>37.39680000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>37.8</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>37.5984</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>38.2968</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>38.2968</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>38.3976</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>38.4984</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>38.2968</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>38.0988</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>38.0988</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>38.1996</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>38.1996</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>38.5992</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>38.7972</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>38.9988</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>39.3984</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>39.4992</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>38.9988</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>38.1996</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>37.998</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>38.3976</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>39.6972</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>39.6972</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>39.9996</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>40.1976</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>40.2984</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>40.0968</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>39.6972</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>39.798</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>39.9996</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>40.8996</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>41.49720000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>41.69880000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>41.7996</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>41.89680000000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>41.598</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>42.0984</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>42.5988</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>42.8976</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>42.8976</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>42.8976</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>42.8976</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>42.9984</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44.298</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>45.2988</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>45.3996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$I$3:$I$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="450"/>
+                <c:pt idx="0">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-32.99222476683677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-25.45908749890462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-21.67892114423831</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-17.13728243035864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.88006079411904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.11858843490568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.796783366359701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.282340093880503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2406046245462079</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.539561730120102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.301034089333459</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.081200443999773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.576949721026015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.062506448546817</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.062506448546817</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.301034089333459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.539561730120102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.539561730120102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.282340093880503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.73635390157245</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.73635390157245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.002076983759565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.5208677346671422</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.5208677346671422</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.73635390157245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.259298619999164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.259298619999164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.73635390157245</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.73635390157245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.020770979212529</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.020770979212529</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.259298619999164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.497826260785807</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.020770979212529</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.039464974665478</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.29668661090507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.05815897011843</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.800937333878835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.800937333878835</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.039464974665478</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.07685296557139</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.07685296557139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.07685296557139</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.07685296557139</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.09554696102434</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.33407460181098</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.8570193202377</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.09554696102434</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.07685296557139</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.35276859726394</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.8570193202377</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.35276859726394</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.63718567490401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.35276859726394</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.39865803411737</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.87571331569065</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.13293495193025</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.1142409564773</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.87571331569065</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.63718567490401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.1142409564773</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.35276859726394</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.65587967035697</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.13293495193025</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.13293495193025</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19.1142409564773</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.61849167945106</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21.39865803411737</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22.89440731114361</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.91310130659657</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.41735202957033</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.19751838423664</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.19751838423664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.15162894738321</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.45474002047624</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.45474002047624</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31.95048929750249</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>31.95048929750249</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.95048929750249</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.45474002047624</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31.21621237968959</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.21621237968959</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.45474002047624</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.95048929750249</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34.23490637514254</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.47343401592919</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.47343401592919</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.73065565216879</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41.79523908447517</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38.01507272980885</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41.79523908447517</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41.03376672526183</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>47.07115471616773</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41.79523908447517</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41.79523908447517</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42.52951600228806</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43.29098836150142</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>46.30968235695437</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43.29098836150142</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51.61279343004739</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>48.59409943459444</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>47.8326270753811</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>50.08984871162068</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>47.8326270753811</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>49.32837635240733</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46.30968235695437</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>49.32837635240733</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>48.59409943459444</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>49.32837635240733</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>49.32837635240733</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>50.85132107083405</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>53.870015066287</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>56.12723670252659</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>56.12723670252659</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>56.12723670252659</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>55.3929597847137</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>56.12723670252659</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>59.90740305719291</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>59.14593069797955</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>58.41165378016667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>62.19182013483297</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>62.19182013483297</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>62.19182013483297</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>62.92609705264586</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>59.14593069797955</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>62.19182013483297</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>59.90740305719291</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>64.44904177107259</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>65.94479104809882</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>65.94479104809882</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>68.22920812573889</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>68.99068048495224</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>67.46773576652552</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>68.22920812573889</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>68.22920812573889</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>66.70626340731216</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>67.46773576652552</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73.50512375743143</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>72.0093744804052</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>76.5238177528844</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>73.50512375743143</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>70.48642976197848</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>72.74365139821808</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>71.24790212119186</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>72.74365139821808</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>71.24790212119186</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>71.24790212119186</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>72.0093744804052</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>72.0093744804052</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.50512375743143</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>75.02806847585816</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>73.50512375743143</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>76.5238177528844</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>77.28529011209775</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>74.26659611664479</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>77.28529011209775</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>75.02806847585816</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>77.28529011209775</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>78.80823483052447</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>78.04676247131111</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>81.06545646676406</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>80.3039841075507</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>84.84562282143038</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>83.32267810300367</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>84.08415046221701</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>86.34137209845662</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>84.84562282143038</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89.38726153531005</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>94.66317716700262</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>95.42464952621596</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>94.66317716700262</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>96.18612188542933</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>93.90170480778926</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>94.66317716700262</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>102.2235098763352</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>101.4620375171219</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>102.2235098763352</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>101.4620375171219</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>102.9849822355486</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>102.9849822355486</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>102.2235098763352</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>102.2235098763352</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>103.7192591533615</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>103.7192591533615</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>103.7192591533615</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>105.2422038717882</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>102.9849822355486</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>108.2608978672412</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>105.2422038717882</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>106.7379531488144</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>108.2608978672412</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>106.0036762310016</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>106.0036762310016</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>104.4807315125748</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>106.0036762310016</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>109.7838425856678</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>112.8025365811208</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>112.0410642219074</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>112.0410642219074</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>111.2795918626941</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>113.5368134989337</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>112.8025365811208</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>113.5368134989337</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>115.0597582173604</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>112.8025365811208</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>113.5368134989337</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>112.8025365811208</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>112.0410642219074</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>115.0597582173604</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>114.2982858581471</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>114.2982858581471</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>116.5827029357871</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>117.3169798536</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>118.0784522128134</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>117.3169798536</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>118.8399245720267</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>121.0971462082663</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>118.8399245720267</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>119.6013969312401</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>118.0784522128134</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>118.8399245720267</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>118.8399245720267</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>121.0971462082663</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>124.1158402037193</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>125.638784922146</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>127.1345341991722</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>128.657478917599</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>128.657478917599</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>130.1804236360256</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>130.9147005538385</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>132.4376452722652</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>133.1991176314786</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>132.4376452722652</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>130.1804236360256</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>130.9147005538385</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>133.9333945492914</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>136.9792839861449</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>137.7135609039578</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>139.9979779815979</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>140.7322548994107</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>140.7322548994107</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>142.2551996178375</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>143.0166719770508</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>143.0166719770508</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>141.4937272586241</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>139.2365056223845</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>134.6948669085049</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>134.6948669085049</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>136.2178116269316</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>136.2178116269316</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>136.9792839861449</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>139.2365056223845</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>143.7781443362642</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>144.5124212540771</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>143.7781443362642</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>143.7781443362642</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>147.53111524953</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>149.0540599679567</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>149.8155323271701</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>151.3112816041963</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>152.0727539634097</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>152.0727539634097</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>152.0727539634097</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>153.5956986818364</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>153.5956986818364</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>153.5956986818364</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>152.0727539634097</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>152.8342263226231</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>155.852920318076</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>157.3758650365027</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>161.1288359497685</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>161.890308308982</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>161.890308308982</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>161.890308308982</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>161.890308308982</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>162.6517806681953</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>162.6517806681953</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>167.1934193820749</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>167.1934193820749</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>167.9276962998878</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>166.4319470228616</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>163.4132530274086</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>167.9276962998878</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>167.1934193820749</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>164.174725386622</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>164.174725386622</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>164.174725386622</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>164.174725386622</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>164.174725386622</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>167.9276962998878</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>168.6891686591012</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>168.6891686591012</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>171.7078626545542</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>172.4693350137675</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>172.4693350137675</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>172.4693350137675</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>170.2121133775279</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>170.9735857367413</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>171.7078626545542</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>170.9735857367413</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>172.4693350137675</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>173.2308073729808</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>173.2308073729808</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>177.0109737276472</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>179.2681953638868</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>180.0296677231001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>182.2868893593397</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>183.0483617185531</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>182.2868893593397</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>180.0296677231001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>176.2495013684338</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>178.5067230046734</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>179.2681953638868</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>177.7724460868605</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>180.0296677231001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>180.0296677231001</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>180.7911400823135</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>182.2868893593397</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>184.5713064369798</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>186.8285280732194</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>187.5900004324328</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>189.085749709459</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>189.085749709459</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>188.3242773502456</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>188.3242773502456</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>188.3242773502456</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>189.8472220686724</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>195.8846100595783</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>196.6460824187917</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>196.6460824187917</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>197.407554778005</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>198.9033040550312</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>200.4262487734579</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>202.6834704096975</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>201.9219980504841</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>204.2064151281243</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>205.7021644051505</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>204.9678874873376</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>205.7021644051505</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>207.2251091235772</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>207.9865814827906</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>209.4823307598168</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>208.7208584006034</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>209.4823307598168</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>209.4823307598168</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>209.4823307598168</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>211.0052754782435</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>210.2438031190301</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>211.0052754782435</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>214.0239694736965</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>214.0239694736965</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>219.299885105389</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>221.5843021830291</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>222.318579100842</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>221.5843021830291</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>221.5843021830291</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>221.5843021830291</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>222.318579100842</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>222.318579100842</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>229.1174394509612</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>232.8976058056276</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>233.6590781648409</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>234.4205505240542</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>232.8976058056276</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>230.640384169388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>230.640384169388</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>230.640384169388</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>230.640384169388</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>229.1174394509612</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>221.5843021830291</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>223.8415238192687</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>226.8602178147216</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>229.1174394509612</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>233.6590781648409</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>234.4205505240542</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>233.6590781648409</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>233.6590781648409</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>232.8976058056276</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>232.8976058056276</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>236.6777721602938</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>238.2007168787206</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>247.2567988650794</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>250.2754928605324</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>249.5140205013191</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>252.5599099381724</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>251.0369652197457</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>256.3128808514383</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>256.3128808514383</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>257.0743532106516</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>257.8358255698651</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>256.3128808514383</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>254.8171315744121</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>254.8171315744121</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>255.5786039336254</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>255.5786039336254</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>258.5972979290784</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>259.3587702882917</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>260.0930472061046</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>261.6159919245313</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>264.6346859199843</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>265.3961582791977</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>261.6159919245313</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>255.5786039336254</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>254.0556592151987</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>257.0743532106516</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>259.3587702882917</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>266.8919075562239</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>266.8919075562239</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>266.157630638411</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>266.157630638411</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>269.1763246338639</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>270.6720739108902</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>272.9564909885303</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>271.4335462701035</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>269.9106015516768</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>266.8919075562239</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>267.6533799154373</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>269.1763246338639</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>272.9564909885303</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>275.9751849839832</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>280.4896282564624</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>282.0125729748892</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>282.7740453341025</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>283.5083222519154</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>281.2511006156757</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>285.0312669703421</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>288.8114333250084</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>291.0686549612479</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>291.0686549612479</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>291.0686549612479</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>291.0686549612479</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>291.8301273204614</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>301.6476816660336</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>309.2080143753662</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>309.9694867345796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
